--- a/AnforderungenFinal.xlsx
+++ b/AnforderungenFinal.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$C$1:$C$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$C$1:$C$83</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="166">
   <si>
     <t>Produkt verleihen</t>
   </si>
@@ -506,6 +506,15 @@
   </si>
   <si>
     <t>Als ausleihender Benutzer möchte ich benachrichtigt werden, wenn ein verleihender Benutzer meine Ausleihanfrage annimmt oder ablehnt. Wird die Anfrage angenommen kommt ein Vertrag zustande.</t>
+  </si>
+  <si>
+    <t>Beschreibung eingeben</t>
+  </si>
+  <si>
+    <t>Eine Beschreibung über das Produkt kann eingegeben werden.</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich eine Beschreibung über das Produkt eingeben und lesen können.</t>
   </si>
 </sst>
 </file>
@@ -955,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -1064,89 +1073,95 @@
     <row r="6" spans="1:8" ht="45" customHeight="1">
       <c r="A6" s="9"/>
       <c r="B6" s="3" t="s">
-        <v>56</v>
+        <v>163</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="38.25">
+    <row r="7" spans="1:8" ht="45" customHeight="1">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>76</v>
+        <v>56</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="45" customHeight="1">
+    <row r="8" spans="1:8" ht="38.25">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="45" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="2" t="s">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A11" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1155,92 +1170,92 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="45">
-      <c r="A12" s="9"/>
-      <c r="B12" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>117</v>
-      </c>
+    <row r="12" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1">
+    <row r="13" spans="1:8" ht="45">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" customHeight="1">
+      <c r="A15" s="9"/>
+      <c r="B15" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" ht="45" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="3" t="s">
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="45" customHeight="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>4</v>
-      </c>
+    <row r="17" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1249,28 +1264,22 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="25.5">
-      <c r="A18" s="9"/>
-      <c r="B18" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>45</v>
-      </c>
+    <row r="18" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="25.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>45</v>
@@ -1278,83 +1287,83 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="60" customHeight="1">
+    <row r="20" spans="1:8">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="60" customHeight="1">
+      <c r="A21" s="9"/>
+      <c r="B21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="30" customHeight="1">
+      <c r="A22" s="8"/>
+      <c r="B22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="92.25" customHeight="1">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" ht="92.25" customHeight="1">
+      <c r="A24" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" ht="45">
-      <c r="A24" s="9"/>
-      <c r="B24" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>45</v>
@@ -1362,37 +1371,43 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" ht="45">
+      <c r="A25" s="9"/>
+      <c r="B25" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A26" s="3"/>
+    <row r="26" spans="1:8" ht="15" customHeight="1">
+      <c r="A26" s="8"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="C26" s="4"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A27" s="7" t="s">
-        <v>5</v>
-      </c>
+    <row r="27" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1401,64 +1416,58 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="60" customHeight="1">
-      <c r="A28" s="9"/>
-      <c r="B28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>83</v>
-      </c>
+    <row r="28" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="38.25">
+    <row r="29" spans="1:8" ht="60" customHeight="1">
       <c r="A29" s="9"/>
       <c r="B29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>162</v>
+        <v>20</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" ht="38.25" customHeight="1">
+    <row r="30" spans="1:8" ht="38.25">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>86</v>
+        <v>162</v>
       </c>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A31" s="8"/>
+    <row r="31" spans="1:8" ht="38.25" customHeight="1">
+      <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>46</v>
@@ -1466,27 +1475,33 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+    <row r="32" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A32" s="8"/>
+      <c r="B32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A33" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="33" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1495,54 +1510,54 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" ht="62.25" customHeight="1">
-      <c r="A34" s="9"/>
-      <c r="B34" s="3" t="s">
+    <row r="34" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" ht="62.25" customHeight="1">
+      <c r="A35" s="9"/>
+      <c r="B35" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4" t="s">
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" ht="39.75" customHeight="1">
-      <c r="A35" s="8"/>
-      <c r="B35" s="3" t="s">
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" ht="39.75" customHeight="1">
+      <c r="A36" s="8"/>
+      <c r="B36" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
+      <c r="F36" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A37" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1551,56 +1566,56 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A38" s="9"/>
-      <c r="B38" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>46</v>
-      </c>
+    <row r="38" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A38" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A39" s="9"/>
+      <c r="B39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:8" ht="43.5" customHeight="1">
-      <c r="A39" s="8"/>
-      <c r="B39" s="3" t="s">
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" ht="43.5" customHeight="1">
+      <c r="A40" s="8"/>
+      <c r="B40" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4" t="s">
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G40" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A41" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1609,38 +1624,38 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" ht="45" customHeight="1">
-      <c r="A42" s="8"/>
-      <c r="B42" s="3" t="s">
+    <row r="42" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A42" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" ht="45" customHeight="1">
+      <c r="A43" s="8"/>
+      <c r="B43" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="6" t="s">
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G43" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A44" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -1649,28 +1664,22 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" ht="45">
-      <c r="A45" s="9"/>
-      <c r="B45" s="3" t="s">
+    <row r="45" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A45" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" ht="45">
+      <c r="A46" s="9"/>
+      <c r="B46" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="1:8" ht="45">
-      <c r="A46" s="8"/>
-      <c r="B46" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>45</v>
@@ -1678,27 +1687,33 @@
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" ht="45">
+      <c r="A47" s="8"/>
+      <c r="B47" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G47" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
       <c r="H47" s="3"/>
     </row>
     <row r="48" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A48" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -1707,28 +1722,22 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A49" s="9"/>
-      <c r="B49" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>46</v>
-      </c>
+    <row r="49" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A49" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8" ht="38.25" customHeight="1">
-      <c r="A50" s="8"/>
+    <row r="50" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A50" s="9"/>
       <c r="B50" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>46</v>
@@ -1736,27 +1745,33 @@
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
+    <row r="51" spans="1:8" ht="38.25" customHeight="1">
+      <c r="A51" s="8"/>
+      <c r="B51" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
+      <c r="F51" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A52" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -1765,92 +1780,92 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8" ht="45">
-      <c r="A53" s="9"/>
-      <c r="B53" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>102</v>
-      </c>
+    <row r="53" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A53" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:8" ht="45" customHeight="1">
+    <row r="54" spans="1:8" ht="45">
       <c r="A54" s="9"/>
       <c r="B54" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>107</v>
+        <v>31</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" ht="45" customHeight="1">
       <c r="A55" s="9"/>
       <c r="B55" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8" ht="45" customHeight="1">
+      <c r="A56" s="9"/>
+      <c r="B56" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G56" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="1:8" ht="38.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="3" t="s">
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" ht="38.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
+      <c r="F57" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A58" s="7" t="s">
-        <v>9</v>
-      </c>
+    <row r="58" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -1859,28 +1874,22 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="1:8" ht="27" customHeight="1">
-      <c r="A59" s="9"/>
-      <c r="B59" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>45</v>
-      </c>
+    <row r="59" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A59" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="1:8" ht="45">
+    <row r="60" spans="1:8" ht="27" customHeight="1">
       <c r="A60" s="9"/>
       <c r="B60" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>45</v>
@@ -1888,17 +1897,17 @@
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:8" ht="60">
-      <c r="A61" s="8"/>
+    <row r="61" spans="1:8" ht="45">
+      <c r="A61" s="9"/>
       <c r="B61" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>45</v>
@@ -1906,27 +1915,33 @@
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
+    <row r="62" spans="1:8" ht="60">
+      <c r="A62" s="8"/>
+      <c r="B62" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
+      <c r="F62" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A63" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -1935,38 +1950,38 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:8" ht="75">
-      <c r="A64" s="8"/>
-      <c r="B64" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>45</v>
-      </c>
+    <row r="64" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A64" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>122</v>
-      </c>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
+    <row r="65" spans="1:8" ht="75">
+      <c r="A65" s="8"/>
+      <c r="B65" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
+      <c r="F65" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>122</v>
+      </c>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="1:8" ht="38.25" customHeight="1">
-      <c r="A66" s="7" t="s">
-        <v>12</v>
-      </c>
+    <row r="66" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -1975,38 +1990,38 @@
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="1:8" ht="80.45" customHeight="1">
-      <c r="A67" s="8"/>
-      <c r="B67" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>46</v>
-      </c>
+    <row r="67" spans="1:8" ht="30" customHeight="1">
+      <c r="A67" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
-      <c r="F67" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>97</v>
-      </c>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
+    <row r="68" spans="1:8" ht="80.25" customHeight="1">
+      <c r="A68" s="8"/>
+      <c r="B68" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
+      <c r="F68" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="H68" s="3"/>
     </row>
     <row r="69" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A69" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -2015,162 +2030,162 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="1:8" ht="45">
-      <c r="A70" s="9"/>
-      <c r="B70" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>45</v>
-      </c>
+    <row r="70" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A70" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6" t="s">
-        <v>141</v>
-      </c>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="1:8" ht="135" customHeight="1">
-      <c r="A71" s="8"/>
+    <row r="71" spans="1:8" ht="45">
+      <c r="A71" s="9"/>
       <c r="B71" s="3" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="5"/>
+      <c r="F71" s="6"/>
       <c r="G71" s="6" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
+    <row r="72" spans="1:8" ht="135" customHeight="1">
+      <c r="A72" s="8"/>
+      <c r="B72" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="1:8" ht="15" customHeight="1">
-      <c r="A73" s="7" t="s">
-        <v>13</v>
-      </c>
+    <row r="73" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A73" s="3"/>
       <c r="B73" s="3"/>
-      <c r="C73" s="4"/>
+      <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="1:8" ht="51" customHeight="1">
-      <c r="A74" s="9"/>
-      <c r="B74" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>46</v>
-      </c>
+    <row r="74" spans="1:8" ht="15" customHeight="1">
+      <c r="A74" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="4"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
-      <c r="F74" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>139</v>
-      </c>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A75" s="8"/>
+    <row r="75" spans="1:8" ht="51" customHeight="1">
+      <c r="A75" s="9"/>
       <c r="B75" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
+    <row r="76" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A76" s="8"/>
+      <c r="B76" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
+      <c r="F76" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="H76" s="3"/>
     </row>
     <row r="77" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A77" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="1:8" ht="38.25" customHeight="1">
-      <c r="A78" s="9"/>
-      <c r="B78" s="3" t="s">
-        <v>148</v>
-      </c>
+    <row r="78" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A78" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
-      <c r="F78" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A79" s="8"/>
+    <row r="79" spans="1:8" ht="38.25" customHeight="1">
+      <c r="A79" s="9"/>
       <c r="B79" s="3" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="H79" s="3"/>
     </row>
-    <row r="80" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
+    <row r="80" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A80" s="8"/>
+      <c r="B80" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
+      <c r="F80" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A81" s="7" t="s">
-        <v>134</v>
-      </c>
+      <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -2179,26 +2194,38 @@
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
     </row>
-    <row r="82" spans="1:8" ht="25.5">
-      <c r="A82" s="8"/>
-      <c r="B82" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>113</v>
-      </c>
+    <row r="82" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A82" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
-      <c r="F82" s="3" t="s">
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="1:8" ht="25.5">
+      <c r="A83" s="8"/>
+      <c r="B83" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G82" s="3" t="s">
+      <c r="G83" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H82" s="3"/>
+      <c r="H83" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C82"/>
+  <autoFilter ref="C1:C83"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/AnforderungenFinal.xlsx
+++ b/AnforderungenFinal.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthias Reckmeyer\Documents\Git\x-share\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="20160" windowHeight="7740"/>
   </bookViews>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="165">
   <si>
     <t>Produkt verleihen</t>
   </si>
@@ -358,18 +363,12 @@
     <t>Als Betreiber möchte ich Big-Data an andere Firmen verkaufen, um so Geld zu verdienen.</t>
   </si>
   <si>
-    <t>must-have</t>
-  </si>
-  <si>
     <t>Updates können eingespielt werden.</t>
   </si>
   <si>
     <t>Als Betreiber möchte ich die Endanwendung in Form von Updates weiterentwickeln können.</t>
   </si>
   <si>
-    <t>Zu jedem auszuleihenden Produkt ein Bild davon hinzufügen.</t>
-  </si>
-  <si>
     <t>Als Benutzer kann ich den Name des Produktes, das ich ausleihen möchte, angeben und dann danach suchen. Produkte mit ähnlichen Namen werden darauf hin angezeigt.</t>
   </si>
   <si>
@@ -515,18 +514,28 @@
   </si>
   <si>
     <t>Als Benutzer möchte ich eine Beschreibung über das Produkt eingeben und lesen können.</t>
+  </si>
+  <si>
+    <t>Zu jedem auszuleihenden Produkt ein oder mehrere Bilder davon hinzufügen.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -628,12 +637,12 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -642,13 +651,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -659,6 +668,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -680,9 +692,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -720,9 +732,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -754,9 +766,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -788,9 +801,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -963,14 +977,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="2" customWidth="1"/>
@@ -982,7 +996,7 @@
     <col min="8" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45.75" customHeight="1">
+    <row r="1" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1004,7 +1018,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1016,10 +1030,10 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="30">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>45</v>
@@ -1034,10 +1048,10 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="30">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>46</v>
@@ -1052,7 +1066,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="45" customHeight="1">
+    <row r="5" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="3" t="s">
         <v>55</v>
@@ -1070,10 +1084,10 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="45" customHeight="1">
+    <row r="6" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>45</v>
@@ -1081,14 +1095,14 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="45" customHeight="1">
+    <row r="7" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>56</v>
@@ -1106,10 +1120,10 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="38.25">
+    <row r="8" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>45</v>
@@ -1124,25 +1138,25 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="45" customHeight="1">
+    <row r="9" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="6" t="s">
-        <v>116</v>
+      <c r="F9" s="10" t="s">
+        <v>164</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>71</v>
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="25.5" customHeight="1">
+    <row r="10" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="2" t="s">
         <v>70</v>
@@ -1160,7 +1174,7 @@
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1170,7 +1184,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>3</v>
       </c>
@@ -1182,10 +1196,10 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="45">
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>45</v>
@@ -1196,11 +1210,11 @@
         <v>62</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1">
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>18</v>
@@ -1218,10 +1232,10 @@
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1">
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>46</v>
@@ -1229,14 +1243,14 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="45" customHeight="1">
+    <row r="16" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="3" t="s">
         <v>17</v>
@@ -1247,14 +1261,14 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="12.75" customHeight="1">
+    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1264,7 +1278,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="25.5" customHeight="1">
+    <row r="18" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>4</v>
       </c>
@@ -1276,7 +1290,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="25.5">
+    <row r="19" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>77</v>
@@ -1294,10 +1308,10 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>45</v>
@@ -1305,14 +1319,14 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="60" customHeight="1">
+    <row r="21" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>15</v>
@@ -1323,14 +1337,14 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="30" customHeight="1">
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="3" t="s">
         <v>16</v>
@@ -1344,11 +1358,11 @@
         <v>80</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="12.75" customHeight="1">
+    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1358,12 +1372,12 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="92.25" customHeight="1">
+    <row r="24" spans="1:8" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>45</v>
@@ -1371,17 +1385,17 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" ht="45">
+    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>45</v>
@@ -1389,14 +1403,14 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1">
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
@@ -1406,7 +1420,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="12.75" customHeight="1">
+    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1416,7 +1430,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="25.5" customHeight="1">
+    <row r="28" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>5</v>
       </c>
@@ -1428,7 +1442,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="60" customHeight="1">
+    <row r="29" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="B29" s="3" t="s">
         <v>20</v>
@@ -1446,7 +1460,7 @@
       </c>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" ht="38.25">
+    <row r="30" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>21</v>
@@ -1460,11 +1474,11 @@
         <v>84</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" ht="38.25" customHeight="1">
+    <row r="31" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>22</v>
@@ -1482,7 +1496,7 @@
       </c>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" ht="25.5" customHeight="1">
+    <row r="32" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="3" t="s">
         <v>23</v>
@@ -1500,7 +1514,7 @@
       </c>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" ht="12.75" customHeight="1">
+    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1510,7 +1524,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" ht="25.5" customHeight="1">
+    <row r="34" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>14</v>
       </c>
@@ -1522,7 +1536,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" ht="62.25" customHeight="1">
+    <row r="35" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="3" t="s">
         <v>24</v>
@@ -1540,12 +1554,14 @@
       </c>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" ht="39.75" customHeight="1">
+    <row r="36" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
@@ -1556,7 +1572,7 @@
       </c>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" ht="12.75" customHeight="1">
+    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1566,7 +1582,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" ht="12.75" customHeight="1">
+    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>8</v>
       </c>
@@ -1578,7 +1594,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" ht="25.5" customHeight="1">
+    <row r="39" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9"/>
       <c r="B39" s="3" t="s">
         <v>19</v>
@@ -1589,14 +1605,14 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" ht="43.5" customHeight="1">
+    <row r="40" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
       <c r="B40" s="3" t="s">
         <v>26</v>
@@ -1614,7 +1630,7 @@
       </c>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8" ht="12.75" customHeight="1">
+    <row r="41" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1624,7 +1640,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" ht="12.75" customHeight="1">
+    <row r="42" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>7</v>
       </c>
@@ -1636,10 +1652,10 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" ht="45" customHeight="1">
+    <row r="43" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
       <c r="B43" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>46</v>
@@ -1650,11 +1666,11 @@
         <v>50</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8" ht="12.75" customHeight="1">
+    <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1664,7 +1680,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" ht="12.75" customHeight="1">
+    <row r="45" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>6</v>
       </c>
@@ -1676,7 +1692,7 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8" ht="45">
+    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
       <c r="B46" s="3" t="s">
         <v>27</v>
@@ -1694,7 +1710,7 @@
       </c>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8" ht="45">
+    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="3" t="s">
         <v>28</v>
@@ -1708,11 +1724,11 @@
         <v>98</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:8" ht="12.75" customHeight="1">
+    <row r="48" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1722,7 +1738,7 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8" ht="12.75" customHeight="1">
+    <row r="49" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>1</v>
       </c>
@@ -1734,7 +1750,7 @@
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8" ht="25.5" customHeight="1">
+    <row r="50" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
       <c r="B50" s="3" t="s">
         <v>29</v>
@@ -1752,7 +1768,7 @@
       </c>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="1:8" ht="38.25" customHeight="1">
+    <row r="51" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
       <c r="B51" s="3" t="s">
         <v>30</v>
@@ -1763,14 +1779,14 @@
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="1:8" ht="12.75" customHeight="1">
+    <row r="52" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1780,7 +1796,7 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8" ht="12.75" customHeight="1">
+    <row r="53" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>58</v>
       </c>
@@ -1792,7 +1808,7 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:8" ht="45">
+    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="B54" s="3" t="s">
         <v>31</v>
@@ -1810,7 +1826,7 @@
       </c>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:8" ht="45" customHeight="1">
+    <row r="55" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
       <c r="B55" s="3" t="s">
         <v>105</v>
@@ -1828,7 +1844,7 @@
       </c>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="1:8" ht="45" customHeight="1">
+    <row r="56" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9"/>
       <c r="B56" s="3" t="s">
         <v>106</v>
@@ -1842,11 +1858,11 @@
         <v>104</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="1:8" ht="38.25">
+    <row r="57" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="B57" s="3" t="s">
         <v>109</v>
@@ -1857,14 +1873,14 @@
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>108</v>
       </c>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:8" ht="12.75" customHeight="1">
+    <row r="58" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1874,7 +1890,7 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="1:8" ht="25.5" customHeight="1">
+    <row r="59" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>9</v>
       </c>
@@ -1886,7 +1902,7 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="1:8" ht="27" customHeight="1">
+    <row r="60" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
       <c r="B60" s="3" t="s">
         <v>32</v>
@@ -1904,7 +1920,7 @@
       </c>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:8" ht="45">
+    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
       <c r="B61" s="3" t="s">
         <v>33</v>
@@ -1922,7 +1938,7 @@
       </c>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:8" ht="60">
+    <row r="62" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="3" t="s">
         <v>34</v>
@@ -1940,7 +1956,7 @@
       </c>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:8" ht="12.75" customHeight="1">
+    <row r="63" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -1950,7 +1966,7 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:8" ht="12.75" customHeight="1">
+    <row r="64" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>11</v>
       </c>
@@ -1962,7 +1978,7 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:8" ht="75">
+    <row r="65" spans="1:8" ht="75" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
       <c r="B65" s="3" t="s">
         <v>35</v>
@@ -1976,11 +1992,11 @@
         <v>54</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="1:8" ht="12.75" customHeight="1">
+    <row r="66" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1990,7 +2006,7 @@
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="1:8" ht="30" customHeight="1">
+    <row r="67" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>12</v>
       </c>
@@ -2002,7 +2018,7 @@
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="1:8" ht="80.25" customHeight="1">
+    <row r="68" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="B68" s="3" t="s">
         <v>36</v>
@@ -2020,7 +2036,7 @@
       </c>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="1:8" ht="12.75" customHeight="1">
+    <row r="69" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2030,7 +2046,7 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="1:8" ht="12.75" customHeight="1">
+    <row r="70" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>10</v>
       </c>
@@ -2042,10 +2058,10 @@
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="1:8" ht="45">
+    <row r="71" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
       <c r="B71" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>45</v>
@@ -2054,11 +2070,11 @@
       <c r="E71" s="3"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="1:8" ht="135" customHeight="1">
+    <row r="72" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="B72" s="3" t="s">
         <v>37</v>
@@ -2074,7 +2090,7 @@
       </c>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="1:8" ht="12.75" customHeight="1">
+    <row r="73" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2084,7 +2100,7 @@
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="1:8" ht="15" customHeight="1">
+    <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>13</v>
       </c>
@@ -2096,10 +2112,10 @@
       <c r="G74" s="4"/>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="1:8" ht="51" customHeight="1">
+    <row r="75" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="9"/>
       <c r="B75" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>46</v>
@@ -2107,17 +2123,17 @@
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="1:8" ht="25.5" customHeight="1">
+    <row r="76" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>48</v>
@@ -2128,11 +2144,11 @@
         <v>59</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H76" s="3"/>
     </row>
-    <row r="77" spans="1:8" ht="12.75" customHeight="1">
+    <row r="77" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2142,7 +2158,7 @@
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="1:8" ht="12.75" customHeight="1">
+    <row r="78" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>38</v>
       </c>
@@ -2152,39 +2168,43 @@
       <c r="E78" s="3"/>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="1:8" ht="38.25" customHeight="1">
+    <row r="79" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9"/>
       <c r="B79" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C79" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H79" s="3"/>
     </row>
-    <row r="80" spans="1:8" ht="25.5" customHeight="1">
+    <row r="80" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8"/>
       <c r="B80" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C80" s="3"/>
+      <c r="C80" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H80" s="3"/>
     </row>
-    <row r="81" spans="1:8" ht="12.75" customHeight="1">
+    <row r="81" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2194,9 +2214,9 @@
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
     </row>
-    <row r="82" spans="1:8" ht="12.75" customHeight="1">
+    <row r="82" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2206,21 +2226,21 @@
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
     </row>
-    <row r="83" spans="1:8" ht="25.5">
+    <row r="83" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A83" s="8"/>
       <c r="B83" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>113</v>
+      <c r="C83" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G83" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="H83" s="3"/>
     </row>
